--- a/doc/工程表/工程表0618.xlsx
+++ b/doc/工程表/工程表0618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A501D-CA86-49E8-91ED-79FD1C94CBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF82F57D-E83C-4380-A76D-E966C80766E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -896,56 +896,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,6 +930,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,17 +950,41 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2258,7 +2258,7 @@
   <dimension ref="A1:AN1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -2312,18 +2312,18 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="41">
+      <c r="B2" s="59">
         <v>2022</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="59">
         <v>6</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2398,56 +2398,56 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="43" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="43" t="s">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="58">
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="51">
         <v>45448</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="43" t="s">
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="44"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="34"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -2488,53 +2488,53 @@
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="49">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="44"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="34"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="52"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2664,10 +2664,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2775,16 +2775,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -2827,14 +2827,14 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -2876,14 +2876,14 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="44"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -2926,14 +2926,14 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="44"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -2974,14 +2974,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -3024,16 +3024,16 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -3076,14 +3076,14 @@
       </c>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="16"/>
@@ -3120,14 +3120,14 @@
       </c>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="40"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="44"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="M16" s="15"/>
@@ -3163,14 +3163,14 @@
       </c>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="40"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="44"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="N17" s="20"/>
@@ -3198,16 +3198,16 @@
       </c>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="44"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -3245,14 +3245,14 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="44"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -3269,7 +3269,7 @@
       <c r="T19" s="16"/>
       <c r="U19" s="20"/>
       <c r="W19" s="15"/>
-      <c r="X19" s="18"/>
+      <c r="X19" s="16"/>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
@@ -3294,14 +3294,14 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A20" s="33"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="44"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -3318,7 +3318,7 @@
       <c r="T20" s="16"/>
       <c r="U20" s="20"/>
       <c r="W20" s="16"/>
-      <c r="X20" s="18"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
@@ -3341,14 +3341,14 @@
       </c>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -3365,7 +3365,7 @@
       <c r="T21" s="16"/>
       <c r="U21" s="20"/>
       <c r="W21" s="15"/>
-      <c r="X21" s="18"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
@@ -3388,14 +3388,14 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -3412,7 +3412,7 @@
       <c r="T22" s="16"/>
       <c r="U22" s="20"/>
       <c r="W22" s="15"/>
-      <c r="X22" s="18"/>
+      <c r="X22" s="16"/>
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
@@ -3435,14 +3435,14 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="33"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -3459,7 +3459,7 @@
       <c r="T23" s="16"/>
       <c r="U23" s="20"/>
       <c r="W23" s="15"/>
-      <c r="X23" s="18"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
@@ -3484,14 +3484,14 @@
       </c>
     </row>
     <row r="24" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A24" s="33"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="44"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -3508,7 +3508,7 @@
       <c r="T24" s="16"/>
       <c r="U24" s="20"/>
       <c r="W24" s="15"/>
-      <c r="X24" s="18"/>
+      <c r="X24" s="16"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
       <c r="AA24" s="18"/>
@@ -3533,14 +3533,14 @@
       </c>
     </row>
     <row r="25" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A25" s="33"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="44"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="22"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -3557,7 +3557,7 @@
       <c r="T25" s="16"/>
       <c r="U25" s="8"/>
       <c r="W25" s="16"/>
-      <c r="X25" s="18"/>
+      <c r="X25" s="16"/>
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
@@ -3582,14 +3582,14 @@
       </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -3606,7 +3606,7 @@
       <c r="T26" s="16"/>
       <c r="U26" s="29"/>
       <c r="W26" s="16"/>
-      <c r="X26" s="18"/>
+      <c r="X26" s="16"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
@@ -3632,10 +3632,10 @@
       <c r="B27" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -3652,7 +3652,7 @@
       <c r="T27" s="16"/>
       <c r="U27" s="29"/>
       <c r="W27" s="16"/>
-      <c r="X27" s="18"/>
+      <c r="X27" s="16"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="29"/>
       <c r="AA27" s="29"/>
@@ -3680,13 +3680,13 @@
       <c r="A28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="44"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -40709,25 +40709,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A18:A26"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="A9:A13"/>
@@ -40744,6 +40725,25 @@
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AK8">
